--- a/planilla_funcionarios.xlsx
+++ b/planilla_funcionarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="datos_personales" sheetId="1" state="visible" r:id="rId2"/>
@@ -267,11 +267,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.78"/>
@@ -445,11 +445,11 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>

--- a/planilla_funcionarios.xlsx
+++ b/planilla_funcionarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datos_personales" sheetId="1" state="visible" r:id="rId2"/>
@@ -267,11 +267,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.78"/>
@@ -445,11 +445,11 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
